--- a/medicine/Enfance/Allen_Say/Allen_Say.xlsx
+++ b/medicine/Enfance/Allen_Say/Allen_Say.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allen Say, né James Allen Koichi Moriwaki Seii à Yokohama (Japon) en 1937, est un auteur et illustrateur américain, d'origine japonaise. 
 </t>
@@ -511,18 +523,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allen Say naît au Japon d'un père coréen et d'une mère nippo-américaine[1]. Ses parents divorcent lorsqu'il a 8 ans[2]. Adolescent, il s'inspire du travail de Noro Shinpei[1]. C'est en son hommage qu'il écrit en 1979 l'ouvrage L'Auberge de la bande dessinée[1] [ (en) The Ink-Keeper's Apprentice].
-En 1953, il quitte le Japon pour suivre son père aux États-Unis[2],[3]. 
-Il a étudié 3 ans à l'Université Aoyama Gakuin, Tokyo, 1 an au Chouinard Art Institute, un an au Los Angeles Art Center School, deux ans à l'Université de Californie à Berkeley et un an au San Francisco Art Institute[4],[3].
-Il est reparti vivre au Japon, est revenu aux États-Unis, puis a séjourné en Allemagne, puis est à nouveau revenu aux États-Unis[2].
-Il devient photographe, puis se consacre au dessin et à l'illustration[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allen Say naît au Japon d'un père coréen et d'une mère nippo-américaine. Ses parents divorcent lorsqu'il a 8 ans. Adolescent, il s'inspire du travail de Noro Shinpei. C'est en son hommage qu'il écrit en 1979 l'ouvrage L'Auberge de la bande dessinée [ (en) The Ink-Keeper's Apprentice].
+En 1953, il quitte le Japon pour suivre son père aux États-Unis,. 
+Il a étudié 3 ans à l'Université Aoyama Gakuin, Tokyo, 1 an au Chouinard Art Institute, un an au Los Angeles Art Center School, deux ans à l'Université de Californie à Berkeley et un an au San Francisco Art Institute,.
+Il est reparti vivre au Japon, est revenu aux États-Unis, puis a séjourné en Allemagne, puis est à nouveau revenu aux États-Unis.
+Il devient photographe, puis se consacre au dessin et à l'illustration,.
 Nombre de ses ouvrages sont d'inspiration autobiographique, et évoquent son pays natal, le Japon.
-Il obtient pour l'album qu'il a illustré, sur un texte de Diane Snyder, Le Garçon qui aimait trop la sieste [(en) The Boy of the Three-Year Nap] le Boston Globe-Horn Book Award[4],[5] en 1988, et le Caldecott Honor[6],[5] (finaliste de la médaille Caldecott) l'année suivante.
-Il retrace dans l'album jeunesse, qu'il a écrit et illustré, Le Voyage de grand-père [ (en)  Grandfather's Journey ], publié en 1993, l'immigration de son grand-père du Japon aux États-Unis, puis son retour dans son pays natal. L'ouvrage obtient la médaille Caldecott en 1994[7],[5].
+Il obtient pour l'album qu'il a illustré, sur un texte de Diane Snyder, Le Garçon qui aimait trop la sieste [(en) The Boy of the Three-Year Nap] le Boston Globe-Horn Book Award, en 1988, et le Caldecott Honor, (finaliste de la médaille Caldecott) l'année suivante.
+Il retrace dans l'album jeunesse, qu'il a écrit et illustré, Le Voyage de grand-père [ (en)  Grandfather's Journey ], publié en 1993, l'immigration de son grand-père du Japon aux États-Unis, puis son retour dans son pays natal. L'ouvrage obtient la médaille Caldecott en 1994,.
 En 2005 il publie Le Bonhomme Kamishibai, traduit par Agnès Desarthe l'année suivante [ (en) Kamishibai Man] qui s'intéresse au théâtre de rue japonais : le kamishibai.
-En 2020, il est l'artiste sélectionné pour représenter son pays, les Etats-Unis, pour le Prix Hans-Christian-Andersen[5], dans la catégorie Illustration, prix international danois.
+En 2020, il est l'artiste sélectionné pour représenter son pays, les Etats-Unis, pour le Prix Hans-Christian-Andersen, dans la catégorie Illustration, prix international danois.
 </t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A Canticle to the Waterbirds, texte de Brother Antoninus (1968) (illustrations)
 Two Ways of Seeing, texte de Wilson Pinney (1971) (illustrations)
@@ -623,11 +639,13 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2000 : Retrospective, the Japanese American National Museum in Los Angeles[2],[5]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2000 : Retrospective, the Japanese American National Museum in Los Angeles,
 Exposition et catalogue d'exposition :
-2007 : (en) The art of Allen Say : a sense of place, Eric Carle Museum of Picture Book Art, 2007[5]</t>
+2007 : (en) The art of Allen Say : a sense of place, Eric Carle Museum of Picture Book Art, 2007</t>
         </is>
       </c>
     </row>
@@ -655,13 +673,15 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liste non exhaustive
-1988 : Boston Globe-Horn Book Award[4] pour  Le Garçon qui aimait trop la sieste [(en) The Boy of the Three-Year Nap]
-1989 : Honor Cadelcott[6] (Finaliste de la médaille Caldecott) pour  Le Garçon qui aimait trop la sieste [(en) The Boy of the Three-Year Nap]
-1994 : Médaille Caldecott[7] pour Le Voyage de grand-père [ (en)  Grandfather's Journey ]
-2020 :  Sélection Etats-Unis du Prix Hans-Christian-Andersen, dans la catégorie Illustration[5]</t>
+1988 : Boston Globe-Horn Book Award pour  Le Garçon qui aimait trop la sieste [(en) The Boy of the Three-Year Nap]
+1989 : Honor Cadelcott (Finaliste de la médaille Caldecott) pour  Le Garçon qui aimait trop la sieste [(en) The Boy of the Three-Year Nap]
+1994 : Médaille Caldecott pour Le Voyage de grand-père [ (en)  Grandfather's Journey ]
+2020 :  Sélection Etats-Unis du Prix Hans-Christian-Andersen, dans la catégorie Illustration</t>
         </is>
       </c>
     </row>
